--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E13B2-5CBC-5C4C-9B03-D36E9F0CC563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B604B-D3C1-0749-A0F9-EC74F1381ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2040" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="2900" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="relative-mixing" sheetId="5" r:id="rId4"/>
     <sheet name="parameters" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B604B-D3C1-0749-A0F9-EC74F1381ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367237C3-5CEF-C146-B9A3-29DCD4A84D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="2900" yWindow="2040" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>setting</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>distribution</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -496,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -646,12 +655,15 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:G1">TRANSPOSE(A2:A7)</f>
         <v>NY</v>
@@ -826,12 +838,15 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:G1">TRANSPOSE(A2:A7)</f>
         <v>NY</v>
@@ -1003,15 +1018,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1027,15 +1042,23 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367237C3-5CEF-C146-B9A3-29DCD4A84D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFAAF9-D9B1-7142-B12C-38C1839BAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2040" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="6520" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="jurisdiction" sheetId="2" r:id="rId2"/>
-    <sheet name="travel" sheetId="3" r:id="rId3"/>
-    <sheet name="relative-mixing" sheetId="5" r:id="rId4"/>
-    <sheet name="parameters" sheetId="4" r:id="rId5"/>
+    <sheet name="parameters" sheetId="4" r:id="rId2"/>
+    <sheet name="jurisdiction" sheetId="2" r:id="rId3"/>
+    <sheet name="beta" sheetId="6" r:id="rId4"/>
+    <sheet name="travel" sheetId="3" r:id="rId5"/>
+    <sheet name="relative-mixing" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>setting</t>
   </si>
@@ -85,42 +86,21 @@
     <t>US</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
     <t>NJ</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -133,10 +113,31 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>obs_lag</t>
+  </si>
+  <si>
+    <t>days_to_adjust_NPI</t>
   </si>
 </sst>
 </file>
@@ -505,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -533,11 +534,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -580,68 +682,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
         <v>100000</v>
       </c>
     </row>
@@ -650,19 +696,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10A5E8-0BB5-4C43-827E-A5AF4D063B7C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(A2:A3)</f>
+        <v>NY</v>
+      </c>
+      <c r="C1" t="str">
+        <v>NJ</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>jurisdiction!B2</f>
+        <v>NY</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>jurisdiction!B3</f>
+        <v>NJ</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C96AD-7FCE-D24F-B326-0D5D7D33F358}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:G1">TRANSPOSE(A2:A7)</f>
@@ -671,17 +768,17 @@
       <c r="C1" t="str">
         <v>NJ</v>
       </c>
-      <c r="D1" t="str">
-        <v>PA</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="F1" t="str">
-        <v>France</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Italy</v>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -733,9 +830,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>jurisdiction!B4</f>
-        <v>PA</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -757,9 +854,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>jurisdiction!B5</f>
-        <v>Germany</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -781,9 +878,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
+      <c r="A6">
         <f>jurisdiction!B6</f>
-        <v>France</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0.01</v>
@@ -805,9 +902,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>jurisdiction!B7</f>
-        <v>Italy</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0.01</v>
@@ -833,19 +930,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578CC606-5086-1F48-9D1A-C2900FAE3B19}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:G1">TRANSPOSE(A2:A7)</f>
@@ -854,17 +951,17 @@
       <c r="C1" t="str">
         <v>NJ</v>
       </c>
-      <c r="D1" t="str">
-        <v>PA</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="F1" t="str">
-        <v>France</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Italy</v>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,9 +1013,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>jurisdiction!B4</f>
-        <v>PA</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -940,9 +1037,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>jurisdiction!B5</f>
-        <v>Germany</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -964,9 +1061,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
+      <c r="A6">
         <f>jurisdiction!B6</f>
-        <v>France</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -988,9 +1085,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>jurisdiction!B7</f>
-        <v>Italy</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1009,56 +1106,6 @@
       </c>
       <c r="G7" s="1">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFAAF9-D9B1-7142-B12C-38C1839BAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FCFB54-F057-6148-80F2-DB7A2652BEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>setting</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>days_to_adjust_NPI</t>
+  </si>
+  <si>
+    <t>rate of becoming symptomatic per unit time</t>
+  </si>
+  <si>
+    <t>rate of transition (exposed to pre-symptomatic)</t>
+  </si>
+  <si>
+    <t>Recovery rate per unit time</t>
+  </si>
+  <si>
+    <t>reduction in contact rate</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,6 +590,9 @@
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -587,6 +602,9 @@
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -596,6 +614,9 @@
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -603,6 +624,15 @@
       </c>
       <c r="B5">
         <v>0.15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -639,7 +669,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +782,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFAAF9-D9B1-7142-B12C-38C1839BAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD2D14-BFD5-8C4C-AE1F-3FE2587924B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="-17080" yWindow="-17440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>setting</t>
   </si>
@@ -138,13 +138,44 @@
   </si>
   <si>
     <t>days_to_adjust_NPI</t>
+  </si>
+  <si>
+    <t>cost.npi</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>infection fatality rate</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>cost of death for the average person who dies from the disease.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>other costs of infection</t>
+  </si>
+  <si>
+    <t>C_surv</t>
+  </si>
+  <si>
+    <t>Cost of surveillance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +186,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,15 +221,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,16 +578,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -627,6 +671,51 @@
       </c>
       <c r="B8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <f>35*10^5</f>
+        <v>3500000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,9 +736,10 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -662,8 +752,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,8 +769,11 @@
       <c r="D2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -688,6 +784,9 @@
         <v>6</v>
       </c>
       <c r="D3">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="4">
         <v>100000</v>
       </c>
     </row>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D6243-19AD-5145-9E17-E5348594F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9F8AF-D0DE-D44E-A087-693FE1BC50A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17080" yWindow="-17440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>setting</t>
   </si>
@@ -225,13 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -550,7 +551,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -580,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,10 +726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,6 +776,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>IF(A2="","",IF(A2+1&lt;=settings!B1,A2+1,""))</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -788,6 +790,96 @@
       </c>
       <c r="E3" s="4">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(A5="","",IF(A5+1&lt;=settings!B4,A5+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(A6="","",IF(A6+1&lt;=settings!B5,A6+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(A7="","",IF(A7+1&lt;=settings!B6,A7+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(A8="","",IF(A8+1&lt;=settings!B7,A8+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(A9="","",IF(A9+1&lt;=settings!B8,A9+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(A10="","",IF(A10+1&lt;=settings!B9,A10+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(A11="","",IF(A11+1&lt;=settings!B10,A11+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(A12="","",IF(A12+1&lt;=settings!B11,A12+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(A13="","",IF(A13+1&lt;=settings!B12,A13+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(A14="","",IF(A14+1&lt;=settings!B13,A14+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(A15="","",IF(A15+1&lt;=settings!B14,A15+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(A16="","",IF(A16+1&lt;=settings!B15,A16+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(A17="","",IF(A17+1&lt;=settings!B16,A17+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(A18="","",IF(A18+1&lt;=settings!B17,A18+1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(A19="","",IF(A19+1&lt;=settings!B18,A19+1,""))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -797,48 +889,3448 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D10A5E8-0BB5-4C43-827E-A5AF4D063B7C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">TRANSPOSE(A2:A3)</f>
+        <f t="array" ref="B1:T1">TRANSPOSE(A2:A20)</f>
         <v>NY</v>
       </c>
       <c r="C1" t="str">
         <v>NJ</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>jurisdiction!B2</f>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <v/>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <v/>
+      </c>
+      <c r="Q1" t="str">
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <v/>
+      </c>
+      <c r="T1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="str">
+        <f>IF(jurisdiction!B2="", "", jurisdiction!B2)</f>
         <v>NY</v>
       </c>
       <c r="B2">
+        <f t="shared" ref="B2:P17" si="0">IF(AND($A2&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B2)&lt;&gt;COLUMN(B2),0,1), "")</f>
         <v>1</v>
       </c>
       <c r="C2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>jurisdiction!B3</f>
+      <c r="D2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="str">
+        <f>IF(jurisdiction!B3="", "", jurisdiction!B3)</f>
         <v>NJ</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:P18" si="1">IF(AND($A3&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B3)&lt;&gt;COLUMN(B3),0,1), "")</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="str">
+        <f>IF(jurisdiction!B4="", "", jurisdiction!B4)</f>
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="str">
+        <f>IF(jurisdiction!B5="", "", jurisdiction!B5)</f>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="str">
+        <f>IF(jurisdiction!B6="", "", jurisdiction!B6)</f>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="str">
+        <f>IF(jurisdiction!B7="", "", jurisdiction!B7)</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="str">
+        <f>IF(jurisdiction!B8="", "", jurisdiction!B8)</f>
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="str">
+        <f>IF(jurisdiction!B9="", "", jurisdiction!B9)</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="str">
+        <f>IF(jurisdiction!B10="", "", jurisdiction!B10)</f>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="str">
+        <f>IF(jurisdiction!B11="", "", jurisdiction!B11)</f>
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="str">
+        <f>IF(jurisdiction!B12="", "", jurisdiction!B12)</f>
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="str">
+        <f>IF(jurisdiction!B13="", "", jurisdiction!B13)</f>
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="str">
+        <f>IF(jurisdiction!B14="", "", jurisdiction!B14)</f>
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="str">
+        <f>IF(jurisdiction!B15="", "", jurisdiction!B15)</f>
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="str">
+        <f>IF(jurisdiction!B16="", "", jurisdiction!B16)</f>
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="str">
+        <f>IF(jurisdiction!B17="", "", jurisdiction!B17)</f>
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="str">
+        <f>IF(jurisdiction!B18="", "", jurisdiction!B18)</f>
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="B18:O54" si="2">IF(AND($A18&lt;&gt;"", C$1&lt;&gt;""),IF(ROW(C18)&lt;&gt;COLUMN(C18),0,1), "")</f>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="str">
+        <f>IF(jurisdiction!B19="", "", jurisdiction!B19)</f>
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ref="B19:O54" si="3">IF(AND($A19&lt;&gt;"", B$1&lt;&gt;""),IF(ROW(B19)&lt;&gt;COLUMN(B19),0,1), "")</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ref="B19:P34" si="4">IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),0,1), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="str">
+        <f>IF(jurisdiction!B20="", "", jurisdiction!B20)</f>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="str">
+        <f>IF(jurisdiction!B21="", "", jurisdiction!B21)</f>
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="str">
+        <f>IF(jurisdiction!B22="", "", jurisdiction!B22)</f>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="str">
+        <f>IF(jurisdiction!B23="", "", jurisdiction!B23)</f>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="str">
+        <f>IF(jurisdiction!B24="", "", jurisdiction!B24)</f>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="str">
+        <f>IF(jurisdiction!B25="", "", jurisdiction!B25)</f>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="str">
+        <f>IF(jurisdiction!B26="", "", jurisdiction!B26)</f>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="str">
+        <f>IF(jurisdiction!B27="", "", jurisdiction!B27)</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="str">
+        <f>IF(jurisdiction!B28="", "", jurisdiction!B28)</f>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="str">
+        <f>IF(jurisdiction!B29="", "", jurisdiction!B29)</f>
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="str">
+        <f>IF(jurisdiction!B30="", "", jurisdiction!B30)</f>
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="str">
+        <f>IF(jurisdiction!B31="", "", jurisdiction!B31)</f>
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="str">
+        <f>IF(jurisdiction!B32="", "", jurisdiction!B32)</f>
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="str">
+        <f>IF(jurisdiction!B33="", "", jurisdiction!B33)</f>
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="str">
+        <f>IF(jurisdiction!B34="", "", jurisdiction!B34)</f>
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="str">
+        <f>IF(jurisdiction!B35="", "", jurisdiction!B35)</f>
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ref="B35:P35" si="5">IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),0,1), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="str">
+        <f>IF(jurisdiction!B36="", "", jurisdiction!B36)</f>
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="str">
+        <f>IF(jurisdiction!B37="", "", jurisdiction!B37)</f>
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="str">
+        <f>IF(jurisdiction!B38="", "", jurisdiction!B38)</f>
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="str">
+        <f>IF(jurisdiction!B39="", "", jurisdiction!B39)</f>
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="str">
+        <f>IF(jurisdiction!B40="", "", jurisdiction!B40)</f>
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="str">
+        <f>IF(jurisdiction!B41="", "", jurisdiction!B41)</f>
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" ref="I54:O54" si="6">IF(AND($A54&lt;&gt;"", I$1&lt;&gt;""),IF(ROW(I54)&lt;&gt;COLUMN(I54),0,1), "")</f>
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -848,180 +4340,1650 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C96AD-7FCE-D24F-B326-0D5D7D33F358}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:G1">TRANSPOSE(A2:A7)</f>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>IF(beta!A1="","",beta!A1)</f>
+        <v>jurisdiction</v>
+      </c>
+      <c r="B1" t="str">
+        <f>beta!B1</f>
         <v>NY</v>
       </c>
       <c r="C1" t="str">
+        <f>beta!C1</f>
         <v>NJ</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" t="str">
+        <f>beta!D1</f>
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <f>beta!E1</f>
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <f>beta!F1</f>
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <f>beta!G1</f>
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <f>beta!H1</f>
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <f>beta!I1</f>
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <f>beta!J1</f>
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <f>beta!K1</f>
+        <v/>
+      </c>
+      <c r="L1" t="str">
+        <f>beta!L1</f>
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <f>beta!M1</f>
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <f>beta!N1</f>
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <f>beta!O1</f>
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <f>beta!P1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>jurisdiction!B2</f>
+        <f>IF(beta!A2="","",beta!A2)</f>
         <v>NY</v>
       </c>
       <c r="B2">
+        <f>IF(OR($A2="", B$1=""), "", IF(ROW(B2)=COLUMN(B2),-0.05,0.01))</f>
         <v>-0.05</v>
       </c>
       <c r="C2">
+        <f t="shared" ref="C2:L2" si="0">IF(OR($A2="", C$1=""), "", IF(ROW(C2)=COLUMN(C2),-0.05,0.01))</f>
         <v>0.01</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>IF(beta!A3="","",beta!A3)</f>
+        <v>NJ</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:L31" si="1">IF(OR($A3="", B$1=""), "", IF(ROW(B3)=COLUMN(B3),-0.05,0.01))</f>
         <v>0.01</v>
       </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>jurisdiction!B3</f>
-        <v>NJ</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
       <c r="C3">
+        <f t="shared" si="1"/>
         <v>-0.05</v>
       </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>jurisdiction!B4</f>
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>-0.05</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f>jurisdiction!B5</f>
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>-0.05</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>jurisdiction!B6</f>
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>-0.05</v>
-      </c>
-      <c r="G6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f>jurisdiction!B7</f>
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7">
-        <v>-0.05</v>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>IF(beta!A4="","",beta!A4)</f>
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>IF(beta!A5="","",beta!A5)</f>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(beta!A6="","",beta!A6)</f>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(beta!A7="","",beta!A7)</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(beta!A8="","",beta!A8)</f>
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(beta!A9="","",beta!A9)</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(beta!A10="","",beta!A10)</f>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(beta!A11="","",beta!A11)</f>
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(beta!A12="","",beta!A12)</f>
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(beta!A13="","",beta!A13)</f>
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(beta!A14="","",beta!A14)</f>
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(beta!A15="","",beta!A15)</f>
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(beta!A16="","",beta!A16)</f>
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(beta!A17="","",beta!A17)</f>
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(beta!A18="","",beta!A18)</f>
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(beta!A19="","",beta!A19)</f>
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(beta!A20="","",beta!A20)</f>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>IF(beta!A21="","",beta!A21)</f>
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>IF(beta!A22="","",beta!A22)</f>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(beta!A23="","",beta!A23)</f>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>IF(beta!A24="","",beta!A24)</f>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(beta!A25="","",beta!A25)</f>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ref="C25:L31" si="2">IF(OR($A25="", I$1=""), "", IF(ROW(I25)=COLUMN(I25),-0.05,0.01))</f>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>IF(beta!A26="","",beta!A26)</f>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>IF(beta!A27="","",beta!A27)</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>IF(beta!A28="","",beta!A28)</f>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>IF(beta!A29="","",beta!A29)</f>
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>IF(beta!A30="","",beta!A30)</f>
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(beta!A31="","",beta!A31)</f>
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>IF(beta!A32="","",beta!A32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>IF(beta!A33="","",beta!A33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>IF(beta!A34="","",beta!A34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>IF(beta!A35="","",beta!A35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>IF(beta!A36="","",beta!A36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>IF(beta!A37="","",beta!A37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>IF(beta!A38="","",beta!A38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>IF(beta!A39="","",beta!A39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>IF(beta!A40="","",beta!A40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>IF(beta!A41="","",beta!A41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>IF(beta!A42="","",beta!A42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>IF(beta!A43="","",beta!A43)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +5996,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9F8AF-D0DE-D44E-A087-693FE1BC50A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE9CE2-4419-CE4E-91B8-86C9315D1838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" activeTab="4" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" activeTab="2" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -225,14 +225,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -728,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,16 +891,13 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="str" cm="1">
@@ -964,7 +960,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="str">
+      <c r="A2" t="str">
         <f>IF(jurisdiction!B2="", "", jurisdiction!B2)</f>
         <v>NY</v>
       </c>
@@ -1030,7 +1026,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="str">
+      <c r="A3" t="str">
         <f>IF(jurisdiction!B3="", "", jurisdiction!B3)</f>
         <v>NJ</v>
       </c>
@@ -1096,7 +1092,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="str">
+      <c r="A4" t="str">
         <f>IF(jurisdiction!B4="", "", jurisdiction!B4)</f>
         <v/>
       </c>
@@ -1162,7 +1158,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="str">
+      <c r="A5" t="str">
         <f>IF(jurisdiction!B5="", "", jurisdiction!B5)</f>
         <v/>
       </c>
@@ -1228,7 +1224,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="str">
+      <c r="A6" t="str">
         <f>IF(jurisdiction!B6="", "", jurisdiction!B6)</f>
         <v/>
       </c>
@@ -1294,7 +1290,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="str">
+      <c r="A7" t="str">
         <f>IF(jurisdiction!B7="", "", jurisdiction!B7)</f>
         <v/>
       </c>
@@ -1360,7 +1356,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="str">
+      <c r="A8" t="str">
         <f>IF(jurisdiction!B8="", "", jurisdiction!B8)</f>
         <v/>
       </c>
@@ -1426,7 +1422,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="str">
+      <c r="A9" t="str">
         <f>IF(jurisdiction!B9="", "", jurisdiction!B9)</f>
         <v/>
       </c>
@@ -1492,7 +1488,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="str">
+      <c r="A10" t="str">
         <f>IF(jurisdiction!B10="", "", jurisdiction!B10)</f>
         <v/>
       </c>
@@ -1558,7 +1554,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="str">
+      <c r="A11" t="str">
         <f>IF(jurisdiction!B11="", "", jurisdiction!B11)</f>
         <v/>
       </c>
@@ -1624,7 +1620,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="str">
+      <c r="A12" t="str">
         <f>IF(jurisdiction!B12="", "", jurisdiction!B12)</f>
         <v/>
       </c>
@@ -1690,7 +1686,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="str">
+      <c r="A13" t="str">
         <f>IF(jurisdiction!B13="", "", jurisdiction!B13)</f>
         <v/>
       </c>
@@ -1756,7 +1752,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="str">
+      <c r="A14" t="str">
         <f>IF(jurisdiction!B14="", "", jurisdiction!B14)</f>
         <v/>
       </c>
@@ -1822,7 +1818,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="str">
+      <c r="A15" t="str">
         <f>IF(jurisdiction!B15="", "", jurisdiction!B15)</f>
         <v/>
       </c>
@@ -1888,7 +1884,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="str">
+      <c r="A16" t="str">
         <f>IF(jurisdiction!B16="", "", jurisdiction!B16)</f>
         <v/>
       </c>
@@ -1954,7 +1950,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="str">
+      <c r="A17" t="str">
         <f>IF(jurisdiction!B17="", "", jurisdiction!B17)</f>
         <v/>
       </c>
@@ -2020,7 +2016,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="str">
+      <c r="A18" t="str">
         <f>IF(jurisdiction!B18="", "", jurisdiction!B18)</f>
         <v/>
       </c>
@@ -2086,7 +2082,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="str">
+      <c r="A19" t="str">
         <f>IF(jurisdiction!B19="", "", jurisdiction!B19)</f>
         <v/>
       </c>
@@ -2147,12 +2143,12 @@
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" ref="B19:P34" si="4">IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),0,1), "")</f>
+        <f t="shared" ref="P19:P34" si="4">IF(AND($A19&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P19)&lt;&gt;COLUMN(P19),0,1), "")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="str">
+      <c r="A20" t="str">
         <f>IF(jurisdiction!B20="", "", jurisdiction!B20)</f>
         <v/>
       </c>
@@ -2218,7 +2214,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="str">
+      <c r="A21" t="str">
         <f>IF(jurisdiction!B21="", "", jurisdiction!B21)</f>
         <v/>
       </c>
@@ -2284,7 +2280,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="str">
+      <c r="A22" t="str">
         <f>IF(jurisdiction!B22="", "", jurisdiction!B22)</f>
         <v/>
       </c>
@@ -2350,7 +2346,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="str">
+      <c r="A23" t="str">
         <f>IF(jurisdiction!B23="", "", jurisdiction!B23)</f>
         <v/>
       </c>
@@ -2416,7 +2412,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="str">
+      <c r="A24" t="str">
         <f>IF(jurisdiction!B24="", "", jurisdiction!B24)</f>
         <v/>
       </c>
@@ -2482,7 +2478,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="str">
+      <c r="A25" t="str">
         <f>IF(jurisdiction!B25="", "", jurisdiction!B25)</f>
         <v/>
       </c>
@@ -2548,7 +2544,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="str">
+      <c r="A26" t="str">
         <f>IF(jurisdiction!B26="", "", jurisdiction!B26)</f>
         <v/>
       </c>
@@ -2614,7 +2610,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="str">
+      <c r="A27" t="str">
         <f>IF(jurisdiction!B27="", "", jurisdiction!B27)</f>
         <v/>
       </c>
@@ -2680,7 +2676,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="str">
+      <c r="A28" t="str">
         <f>IF(jurisdiction!B28="", "", jurisdiction!B28)</f>
         <v/>
       </c>
@@ -2746,7 +2742,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="str">
+      <c r="A29" t="str">
         <f>IF(jurisdiction!B29="", "", jurisdiction!B29)</f>
         <v/>
       </c>
@@ -2812,7 +2808,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="str">
+      <c r="A30" t="str">
         <f>IF(jurisdiction!B30="", "", jurisdiction!B30)</f>
         <v/>
       </c>
@@ -2878,7 +2874,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="str">
+      <c r="A31" t="str">
         <f>IF(jurisdiction!B31="", "", jurisdiction!B31)</f>
         <v/>
       </c>
@@ -2944,7 +2940,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="str">
+      <c r="A32" t="str">
         <f>IF(jurisdiction!B32="", "", jurisdiction!B32)</f>
         <v/>
       </c>
@@ -3010,7 +3006,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="str">
+      <c r="A33" t="str">
         <f>IF(jurisdiction!B33="", "", jurisdiction!B33)</f>
         <v/>
       </c>
@@ -3076,7 +3072,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="str">
+      <c r="A34" t="str">
         <f>IF(jurisdiction!B34="", "", jurisdiction!B34)</f>
         <v/>
       </c>
@@ -3142,7 +3138,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="str">
+      <c r="A35" t="str">
         <f>IF(jurisdiction!B35="", "", jurisdiction!B35)</f>
         <v/>
       </c>
@@ -3203,12 +3199,12 @@
         <v/>
       </c>
       <c r="P35" t="str">
-        <f t="shared" ref="B35:P35" si="5">IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),0,1), "")</f>
+        <f t="shared" ref="P35" si="5">IF(AND($A35&lt;&gt;"", P$1&lt;&gt;""),IF(ROW(P35)&lt;&gt;COLUMN(P35),0,1), "")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="str">
+      <c r="A36" t="str">
         <f>IF(jurisdiction!B36="", "", jurisdiction!B36)</f>
         <v/>
       </c>
@@ -3270,7 +3266,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="str">
+      <c r="A37" t="str">
         <f>IF(jurisdiction!B37="", "", jurisdiction!B37)</f>
         <v/>
       </c>
@@ -3332,7 +3328,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="str">
+      <c r="A38" t="str">
         <f>IF(jurisdiction!B38="", "", jurisdiction!B38)</f>
         <v/>
       </c>
@@ -3394,7 +3390,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="str">
+      <c r="A39" t="str">
         <f>IF(jurisdiction!B39="", "", jurisdiction!B39)</f>
         <v/>
       </c>
@@ -3456,7 +3452,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="str">
+      <c r="A40" t="str">
         <f>IF(jurisdiction!B40="", "", jurisdiction!B40)</f>
         <v/>
       </c>
@@ -3518,7 +3514,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="str">
+      <c r="A41" t="str">
         <f>IF(jurisdiction!B41="", "", jurisdiction!B41)</f>
         <v/>
       </c>
@@ -4342,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C96AD-7FCE-D24F-B326-0D5D7D33F358}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE9CE2-4419-CE4E-91B8-86C9315D1838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5E7E8-E987-4E49-9714-5B6812524FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" activeTab="2" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +718,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>settings!A2</f>
+        <v>nr_patches</v>
+      </c>
+      <c r="B13">
+        <f>settings!B2</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -727,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192CD30-F114-BB47-AF6C-7BCFE754F543}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+    <sheetView zoomScale="187" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5E7E8-E987-4E49-9714-5B6812524FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468269C-86A4-064C-B44F-7D939288B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,20 @@
     <sheet name="travel" sheetId="3" r:id="rId5"/>
     <sheet name="relative-mixing" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="c_">parameters!$B$6</definedName>
+    <definedName name="C_surv">parameters!$B$12</definedName>
+    <definedName name="days_to_adjust_NPI">parameters!$B$8</definedName>
+    <definedName name="delta">parameters!$B$3</definedName>
+    <definedName name="gamma">parameters!$B$4</definedName>
+    <definedName name="nr_patches">parameters!$B$13</definedName>
+    <definedName name="o">parameters!$B$11</definedName>
+    <definedName name="obs_lag">parameters!$B$7</definedName>
+    <definedName name="r_">parameters!$B$9</definedName>
+    <definedName name="sigma">parameters!$B$2</definedName>
+    <definedName name="tau">parameters!$B$5</definedName>
+    <definedName name="w">parameters!$B$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -549,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+    <sheetView zoomScale="181" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -580,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,7 +915,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468269C-86A4-064C-B44F-7D939288B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E95C6-946A-7B4D-B1D3-75F9B98FC1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="22400" windowHeight="17360" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="6820" yWindow="760" windowWidth="22400" windowHeight="17180" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,16 +730,6 @@
       </c>
       <c r="C12" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f>settings!A2</f>
-        <v>nr_patches</v>
-      </c>
-      <c r="B13">
-        <f>settings!B2</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/metapopulation-inputs.xlsx
+++ b/data/metapopulation-inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahk/Documents/GitRepos/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E95C6-946A-7B4D-B1D3-75F9B98FC1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB49C7D-C7E2-8B45-9826-BEBC2A96235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="760" windowWidth="22400" windowHeight="17180" activeTab="1" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
+    <workbookView xWindow="7840" yWindow="760" windowWidth="22400" windowHeight="17180" xr2:uid="{0C369B58-09D0-0147-9E6F-D031731E4386}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>setting</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>Cost of surveillance</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
 </sst>
 </file>
@@ -561,9 +570,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12AAEB-4DB6-F84A-A5FA-6A348965EB1E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +591,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <f>MAX(jurisdiction!A:A)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -594,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930774C7-2D37-094A-A2DB-7EC2D5ACBFA8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +760,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,7 +820,24 @@
         <v>100000</v>
       </c>
       <c r="E3" s="4">
-        <v>100000</v>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>200000</v>
+      </c>
+      <c r="E4">
+        <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,7 +957,7 @@
         <v>NJ</v>
       </c>
       <c r="D1" t="str">
-        <v/>
+        <v>PA</v>
       </c>
       <c r="E1" t="str">
         <v/>
@@ -986,9 +1021,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" si="0"/>
@@ -1052,9 +1087,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -1108,19 +1143,19 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF(jurisdiction!B4="", "", jurisdiction!B4)</f>
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>PA</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -4373,7 +4408,7 @@
       </c>
       <c r="D1" t="str">
         <f>beta!D1</f>
-        <v/>
+        <v>PA</v>
       </c>
       <c r="E1" t="str">
         <f>beta!E1</f>
@@ -4437,9 +4472,9 @@
         <f t="shared" ref="C2:L2" si="0">IF(OR($A2="", C$1=""), "", IF(ROW(C2)=COLUMN(C2),-0.05,0.01))</f>
         <v>0.01</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" si="0"/>
@@ -4487,9 +4522,9 @@
         <f t="shared" si="1"/>
         <v>-0.05</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
@@ -4527,19 +4562,19 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF(beta!A4="","",beta!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>PA</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -6022,8 +6057,8 @@
       <c r="C1" t="str">
         <v>NJ</v>
       </c>
-      <c r="D1">
-        <v>0</v>
+      <c r="D1" t="str">
+        <v>PA</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -6084,9 +6119,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>jurisdiction!B4</f>
-        <v>0</v>
+        <v>PA</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
